--- a/data/trans_dic/IP08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP08-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>8,98%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,74; 12,22</t>
+          <t>8,76; 15,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,44; 14,86</t>
+          <t>8,87; 16,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 8,5</t>
+          <t>3,7; 8,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 17,15</t>
+          <t>8,4; 16,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,62</t>
+          <t>7,69; 15,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 11,34</t>
+          <t>8,52; 15,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,5</t>
+          <t>3,86; 9,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,05; 13,88</t>
+          <t>3,58; 9,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,42</t>
+          <t>9,18; 14,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 12,35</t>
+          <t>9,61; 14,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,56</t>
+          <t>4,35; 8,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,03; 14,43</t>
+          <t>6,62; 11,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>11,06%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,76; 15,86</t>
+          <t>6,74; 12,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,87; 16,13</t>
+          <t>8,44; 14,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,61</t>
+          <t>3,62; 8,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,4; 16,64</t>
+          <t>8,47; 17,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,69; 15,14</t>
+          <t>3,91; 8,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 15,61</t>
+          <t>5,98; 11,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 9,25</t>
+          <t>3,34; 8,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 9,48</t>
+          <t>8,05; 13,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 14,16</t>
+          <t>5,74; 9,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 14,78</t>
+          <t>8,13; 12,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,09</t>
+          <t>4,13; 7,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,62; 11,7</t>
+          <t>9,03; 14,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP08-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>16,07%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,63; 18,21</t>
+          <t>8,4; 18,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 21,75</t>
+          <t>12,61; 23,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 13,8</t>
+          <t>6,34; 15,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,11; 22,52</t>
+          <t>11,34; 26,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 11,69</t>
+          <t>5,4; 14,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,48; 19,22</t>
+          <t>10,33; 19,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 12,97</t>
+          <t>4,33; 11,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 17,36</t>
+          <t>7,7; 22,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,41; 14,48</t>
+          <t>8,21; 15,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,91; 19,42</t>
+          <t>12,78; 19,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,42; 12,26</t>
+          <t>6,22; 11,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,77; 17,83</t>
+          <t>11,07; 21,67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>9,2%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,76; 15,86</t>
+          <t>10,71; 17,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 16,13</t>
+          <t>11,0; 18,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,61</t>
+          <t>5,91; 11,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,4; 16,64</t>
+          <t>8,42; 17,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,69; 15,14</t>
+          <t>6,97; 13,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,52; 15,61</t>
+          <t>9,13; 16,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 9,25</t>
+          <t>5,99; 12,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 9,48</t>
+          <t>3,33; 9,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 14,16</t>
+          <t>9,59; 14,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,61; 14,78</t>
+          <t>11,02; 15,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,09</t>
+          <t>6,65; 10,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,62; 11,7</t>
+          <t>7,0; 11,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>10,21%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,74; 12,22</t>
+          <t>6,8; 15,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,44; 14,86</t>
+          <t>6,14; 13,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 8,5</t>
+          <t>1,29; 5,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,47; 17,15</t>
+          <t>7,2; 15,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,62</t>
+          <t>7,29; 16,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 11,34</t>
+          <t>8,85; 17,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,5</t>
+          <t>2,65; 7,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,05; 13,88</t>
+          <t>6,34; 14,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,42</t>
+          <t>7,65; 13,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 12,35</t>
+          <t>8,34; 14,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,56</t>
+          <t>2,44; 5,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 14,43</t>
+          <t>7,72; 13,39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>11,4%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,79; 13,54</t>
+          <t>5,69; 12,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,36; 15,64</t>
+          <t>9,48; 18,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 8,51</t>
+          <t>4,16; 10,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,46</t>
+          <t>8,88; 20,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 10,17</t>
+          <t>2,28; 6,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 13,54</t>
+          <t>4,99; 11,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,49</t>
+          <t>3,53; 9,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,48; 11,33</t>
+          <t>7,4; 14,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 11,32</t>
+          <t>4,61; 8,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,32; 14,19</t>
+          <t>8,11; 13,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 8,07</t>
+          <t>4,41; 8,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,28; 12,82</t>
+          <t>8,81; 15,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11,56%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,94%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12,38%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11,66%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,96%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12,65%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9,65; 13,45</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11,44; 15,56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,43; 8,54</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10,17; 15,38</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,54; 10,2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9,79; 13,69</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 8,53</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7,54; 11,51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8,72; 11,21</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11,26; 14,1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,91; 8,03</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9,4; 13,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP08-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,4; 18,23</t>
+          <t>8,56; 18,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,61; 23,01</t>
+          <t>12,7; 22,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,34; 15,05</t>
+          <t>6,34; 15,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,34; 26,13</t>
+          <t>10,88; 25,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,4; 14,31</t>
+          <t>5,59; 14,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,33; 19,79</t>
+          <t>10,29; 19,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,33; 11,48</t>
+          <t>4,62; 11,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,7; 22,44</t>
+          <t>8,43; 23,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 15,04</t>
+          <t>8,14; 14,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,78; 19,33</t>
+          <t>12,37; 19,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,22; 11,99</t>
+          <t>6,16; 11,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,07; 21,67</t>
+          <t>11,87; 21,99</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,71; 17,88</t>
+          <t>10,7; 17,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,0; 18,29</t>
+          <t>10,98; 18,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 11,34</t>
+          <t>5,78; 11,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,42; 17,02</t>
+          <t>8,6; 16,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,97; 13,05</t>
+          <t>7,1; 12,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,13; 16,29</t>
+          <t>8,51; 15,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,99; 12,36</t>
+          <t>5,96; 12,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,34</t>
+          <t>3,4; 9,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,59; 14,27</t>
+          <t>9,63; 14,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,02; 15,91</t>
+          <t>10,82; 15,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,65; 10,65</t>
+          <t>6,59; 10,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,79</t>
+          <t>6,95; 12,05</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 15,61</t>
+          <t>6,83; 15,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 13,94</t>
+          <t>5,75; 13,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,98</t>
+          <t>1,53; 5,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 15,25</t>
+          <t>7,46; 15,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 16,35</t>
+          <t>6,67; 15,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,85; 17,5</t>
+          <t>8,77; 17,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 7,91</t>
+          <t>2,73; 7,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,34; 14,16</t>
+          <t>6,18; 13,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,65; 13,77</t>
+          <t>8,13; 14,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,34; 14,36</t>
+          <t>8,56; 14,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,74</t>
+          <t>2,47; 5,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 13,39</t>
+          <t>7,28; 13,08</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,69; 12,08</t>
+          <t>5,94; 11,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,48; 18,17</t>
+          <t>9,85; 17,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 10,63</t>
+          <t>4,2; 10,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,88; 20,17</t>
+          <t>8,69; 19,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,9</t>
+          <t>2,31; 7,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 11,56</t>
+          <t>5,0; 11,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 9,93</t>
+          <t>3,46; 9,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,4; 14,13</t>
+          <t>7,32; 14,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 8,6</t>
+          <t>4,69; 8,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,11; 13,45</t>
+          <t>8,22; 13,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,74</t>
+          <t>4,46; 8,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 15,26</t>
+          <t>8,89; 16,0</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,65; 13,45</t>
+          <t>9,95; 13,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,44; 15,56</t>
+          <t>11,54; 15,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 8,54</t>
+          <t>5,52; 8,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,17; 15,38</t>
+          <t>10,28; 15,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 10,2</t>
+          <t>6,64; 9,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,79; 13,69</t>
+          <t>9,71; 13,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 8,53</t>
+          <t>5,32; 8,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,54; 11,51</t>
+          <t>7,51; 11,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,72; 11,21</t>
+          <t>8,71; 11,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,26; 14,1</t>
+          <t>11,2; 14,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,03</t>
+          <t>5,85; 7,99</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,4; 13,02</t>
+          <t>9,43; 12,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP08-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que han sufrido alguna dolencia o enfermedad continuada</t>
+          <t>Menores que sufrieron alguna dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9,42%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14,21%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>12,79%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>17,08%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>10,17%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>17,85%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,42%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>14,39%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7,38%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>16,5%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 18,79</t>
+          <t>5,32; 14,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,7; 22,64</t>
+          <t>10,13; 19,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,34; 15,16</t>
+          <t>4,29; 12,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,88; 25,78</t>
+          <t>7,73; 23,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 14,84</t>
+          <t>8,67; 18,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,29; 19,31</t>
+          <t>12,33; 22,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 11,57</t>
+          <t>6,43; 15,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,43; 23,12</t>
+          <t>11,73; 27,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,14; 14,68</t>
+          <t>8,15; 15,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,37; 19,56</t>
+          <t>12,75; 19,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 11,89</t>
+          <t>6,25; 11,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,87; 21,99</t>
+          <t>11,4; 22,18</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8,83%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>13,85%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>14,28%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>8,26%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,11%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,74%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>11,97%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>8,83%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>9,35%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,7; 17,78</t>
+          <t>7,11; 13,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,98; 18,11</t>
+          <t>8,87; 15,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,78; 11,14</t>
+          <t>6,17; 12,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,6; 16,16</t>
+          <t>3,64; 9,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,88</t>
+          <t>10,48; 17,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,51; 15,39</t>
+          <t>11,02; 17,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 12,33</t>
+          <t>5,65; 11,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 9,25</t>
+          <t>8,84; 17,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,34</t>
+          <t>9,51; 14,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,82; 15,78</t>
+          <t>10,89; 15,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,68</t>
+          <t>6,61; 10,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,95; 12,05</t>
+          <t>7,13; 12,15</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>10,74%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4,71%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9,67%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>10,68%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>9,43%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>3,15%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,8%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>10,74%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>12,86%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,71%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>10,42%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 15,41</t>
+          <t>6,74; 16,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,75; 13,97</t>
+          <t>8,71; 17,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,86</t>
+          <t>2,59; 7,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 15,37</t>
+          <t>6,24; 14,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,67; 15,77</t>
+          <t>6,82; 15,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,77; 17,97</t>
+          <t>6,25; 13,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,49</t>
+          <t>1,46; 5,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 13,65</t>
+          <t>7,26; 16,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 14,24</t>
+          <t>7,7; 14,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 14,35</t>
+          <t>8,47; 14,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,93</t>
+          <t>2,54; 6,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 13,08</t>
+          <t>7,7; 13,45</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>8,62%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>13,39%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>6,79%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>12,54%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,06%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,81%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,11%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>12,24%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 11,9</t>
+          <t>2,3; 7,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,85; 17,87</t>
+          <t>4,95; 11,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 10,88</t>
+          <t>3,54; 9,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,69; 19,96</t>
+          <t>7,04; 17,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,16</t>
+          <t>5,87; 12,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 11,94</t>
+          <t>9,65; 18,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,55</t>
+          <t>3,93; 10,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 14,57</t>
+          <t>9,1; 25,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,64</t>
+          <t>4,6; 8,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,22; 13,42</t>
+          <t>7,97; 13,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,88</t>
+          <t>4,42; 8,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,89; 16,0</t>
+          <t>9,11; 19,11</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11,66%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9,56%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>11,56%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>13,59%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>6,94%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>12,38%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,26%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>11,66%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>6,79%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>11,41%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,95; 13,83</t>
+          <t>6,7; 10,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,54; 15,68</t>
+          <t>9,9; 13,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,52; 8,52</t>
+          <t>5,26; 8,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,28; 15,83</t>
+          <t>7,52; 12,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,64; 9,99</t>
+          <t>9,79; 13,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,71; 13,67</t>
+          <t>11,36; 15,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 8,42</t>
+          <t>5,57; 8,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,51; 11,57</t>
+          <t>10,49; 17,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,71; 11,27</t>
+          <t>8,77; 11,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,2; 14,12</t>
+          <t>11,32; 14,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,85; 7,99</t>
+          <t>5,86; 8,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,43; 12,7</t>
+          <t>9,62; 14,07</t>
         </is>
       </c>
     </row>
